--- a/clientdata/goatery.xlsx
+++ b/clientdata/goatery.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Main Points" sheetId="1" r:id="rId1"/>
     <sheet name="Tables" sheetId="2" r:id="rId2"/>
     <sheet name="Tables with fields" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="190">
   <si>
     <t>main points</t>
   </si>
@@ -264,9 +265,6 @@
     <t>f5_number_of_goats</t>
   </si>
   <si>
-    <t>f4_</t>
-  </si>
-  <si>
     <t>f5_female_goat</t>
   </si>
   <si>
@@ -559,6 +557,36 @@
   </si>
   <si>
     <t>f7_total_income_from_goat_breeding</t>
+  </si>
+  <si>
+    <t>f4_own_land</t>
+  </si>
+  <si>
+    <t>f4_leased_in_land</t>
+  </si>
+  <si>
+    <t>f4_leased_out_land</t>
+  </si>
+  <si>
+    <t>f4_barren_land</t>
+  </si>
+  <si>
+    <t>f4_cultivable_land</t>
+  </si>
+  <si>
+    <t>f4_irrigated_land</t>
+  </si>
+  <si>
+    <t>f4_acreage_irrigated_land</t>
+  </si>
+  <si>
+    <t>f4_unirrigated_land</t>
+  </si>
+  <si>
+    <t>f4_acreage_unirrigated_land</t>
+  </si>
+  <si>
+    <t>f4_annual_income_of_farming</t>
   </si>
 </sst>
 </file>
@@ -598,12 +626,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -659,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -670,23 +704,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,10 +1113,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
@@ -1206,7 +1243,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -1214,7 +1251,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1267,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -1238,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -1301,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,20 +1847,20 @@
         <v>29</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="11"/>
       <c r="K23" s="9" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="9"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="11"/>
       <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
@@ -2046,10 +2083,10 @@
         <v>14</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="12"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
@@ -2149,9 +2186,11 @@
         <v>38</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -2173,9 +2212,11 @@
         <v>38</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L39" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -2197,9 +2238,11 @@
         <v>37</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -2221,10 +2264,10 @@
         <v>37</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>37</v>
+        <v>183</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -2247,10 +2290,10 @@
         <v>46</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>46</v>
+        <v>184</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -2273,10 +2316,10 @@
         <v>37</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>37</v>
+        <v>185</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -2293,10 +2336,10 @@
         <v>46</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>46</v>
+        <v>186</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -2306,10 +2349,10 @@
       <c r="C45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F45" s="8"/>
+      <c r="E45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="11"/>
       <c r="H45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2317,10 +2360,10 @@
         <v>37</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>37</v>
+        <v>187</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -2336,6 +2379,12 @@
       <c r="F46" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="K46" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
@@ -2350,14 +2399,16 @@
       <c r="F47" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" s="8"/>
-      <c r="K47" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="9"/>
+      <c r="H47" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="K47" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
@@ -2378,11 +2429,11 @@
       <c r="I48" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>33</v>
+      <c r="K48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -2393,7 +2444,7 @@
         <v>46</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>37</v>
@@ -2404,11 +2455,11 @@
       <c r="I49" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>35</v>
+      <c r="K49" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -2430,10 +2481,10 @@
       <c r="I50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L50" s="2" t="s">
+      <c r="K50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2445,21 +2496,21 @@
         <v>46</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>37</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C52" s="9"/>
       <c r="E52" s="2" t="s">
@@ -2475,10 +2526,10 @@
         <v>37</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2500,15 +2551,9 @@
       <c r="I53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -2526,12 +2571,10 @@
       <c r="I54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="K54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="9"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
@@ -2546,11 +2589,11 @@
       <c r="I55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>38</v>
+      <c r="K55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -2560,26 +2603,26 @@
       <c r="C56" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="8"/>
+      <c r="E56" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="11"/>
       <c r="H56" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>38</v>
+      <c r="K56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>37</v>
@@ -2590,16 +2633,16 @@
       <c r="F57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>38</v>
+      <c r="K57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>37</v>
@@ -2610,12 +2653,12 @@
       <c r="F58" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I58" s="8"/>
+      <c r="H58" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I58" s="11"/>
       <c r="K58" s="3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>38</v>
@@ -2623,7 +2666,7 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>37</v>
@@ -2641,7 +2684,7 @@
         <v>33</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>38</v>
@@ -2649,13 +2692,13 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>37</v>
@@ -2666,16 +2709,16 @@
       <c r="I60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>37</v>
+      <c r="K60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>38</v>
@@ -2692,16 +2735,16 @@
       <c r="I61" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>46</v>
+      <c r="K61" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>38</v>
@@ -2713,21 +2756,21 @@
         <v>46</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K62" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>37</v>
+      <c r="K62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>37</v>
@@ -2744,11 +2787,11 @@
       <c r="I63" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>46</v>
+      <c r="K63" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -2770,14 +2813,14 @@
       <c r="I64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K64" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>41</v>
       </c>
@@ -2796,8 +2839,14 @@
       <c r="I65" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K65" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>42</v>
       </c>
@@ -2810,26 +2859,38 @@
       <c r="I66" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K66" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="8"/>
+      <c r="F67" s="11"/>
       <c r="H67" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K67" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>44</v>
       </c>
@@ -2842,24 +2903,36 @@
       <c r="F68" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
+      <c r="K68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="E69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="11"/>
+      <c r="K69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="9"/>
       <c r="E70" s="2" t="s">
@@ -2874,8 +2947,14 @@
       <c r="I70" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2962,7 @@
         <v>33</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>38</v>
@@ -2894,8 +2973,14 @@
       <c r="I71" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K71" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>34</v>
       </c>
@@ -2903,7 +2988,7 @@
         <v>35</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>38</v>
@@ -2915,7 +3000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>36</v>
       </c>
@@ -2923,153 +3008,153 @@
         <v>37</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H73" s="3" t="s">
+      <c r="F74" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H74" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+      <c r="I74" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H74" s="3" t="s">
+      <c r="F75" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+      <c r="I75" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="3" t="s">
+      <c r="C76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H75" s="3" t="s">
+      <c r="F76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
+      <c r="I76" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="C77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="F77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B77" s="3" t="s">
+      <c r="I77" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H77" s="3" t="s">
+      <c r="F78" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+      <c r="I78" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="C79" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H78" s="3" t="s">
+      <c r="F79" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="I79" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="C80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H79" s="3" t="s">
+      <c r="F80" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>37</v>
@@ -3077,19 +3162,19 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>37</v>
@@ -3097,13 +3182,13 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>37</v>
@@ -3117,13 +3202,13 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>37</v>
@@ -3137,7 +3222,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>37</v>
@@ -3157,7 +3242,7 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>37</v>
@@ -3177,7 +3262,7 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>37</v>
@@ -3222,10 +3307,10 @@
       <c r="F88" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I88" s="8"/>
+      <c r="I88" s="11"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
@@ -3262,10 +3347,10 @@
       <c r="C91" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="8"/>
+      <c r="F91" s="11"/>
       <c r="H91" s="2" t="s">
         <v>36</v>
       </c>
@@ -3274,8 +3359,8 @@
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
       <c r="E92" s="1" t="s">
         <v>32</v>
       </c>
@@ -3283,7 +3368,7 @@
         <v>33</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>38</v>
@@ -3291,7 +3376,7 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="9"/>
       <c r="E93" s="2" t="s">
@@ -3301,7 +3386,7 @@
         <v>35</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>38</v>
@@ -3321,7 +3406,7 @@
         <v>37</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>38</v>
@@ -3335,13 +3420,13 @@
         <v>35</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>38</v>
@@ -3355,13 +3440,13 @@
         <v>37</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>38</v>
@@ -3369,13 +3454,13 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>37</v>
@@ -3389,13 +3474,13 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>37</v>
@@ -3409,13 +3494,13 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>37</v>
@@ -3429,13 +3514,13 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>37</v>
@@ -3449,7 +3534,7 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>37</v>
@@ -3469,7 +3554,7 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>37</v>
@@ -3483,7 +3568,7 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>37</v>
@@ -3501,7 +3586,7 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>37</v>
@@ -3521,7 +3606,7 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>37</v>
@@ -3541,7 +3626,7 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>37</v>
@@ -3555,13 +3640,13 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>38</v>
@@ -3569,13 +3654,13 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>38</v>
@@ -3583,13 +3668,13 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>38</v>
@@ -3597,13 +3682,13 @@
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>38</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>38</v>
@@ -3611,13 +3696,13 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>38</v>
@@ -3625,7 +3710,7 @@
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>37</v>
@@ -3639,7 +3724,7 @@
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>37</v>
@@ -3718,7 +3803,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="H34:I34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B24:C24"/>
@@ -3728,17 +3812,45 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E91:F91"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="H69:I69"/>
     <mergeCell ref="H88:I88"/>
+    <mergeCell ref="H34:I34"/>
     <mergeCell ref="H103:I103"/>
-    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K54:L54"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B93:C93"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E91:F91"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
